--- a/walkthrough.xlsx
+++ b/walkthrough.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessc\Documents\Aaall My Docs\Code\EnKrypt program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessc\Documents\Aaall My Docs\Code\EnKrypt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7276F57-E500-4310-B7FA-A1A6A10735B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E78AB-4A5B-4BA9-A760-C7455A253A9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{366C1A44-084F-4D3F-9FAC-354A18AB2FD6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Estring::Estring(Qstring text)</t>
   </si>
@@ -104,64 +104,43 @@
     <t>// Skip forward a bunch</t>
   </si>
   <si>
-    <t>scramble();</t>
-  </si>
-  <si>
-    <t>scramble()</t>
-  </si>
-  <si>
-    <t>first_of_color_after(int color, int index)</t>
-  </si>
-  <si>
-    <t>int match=-1;</t>
-  </si>
-  <si>
-    <t>for(int i=index; i&lt;m_symbols.size(); i++)</t>
-  </si>
-  <si>
-    <t>if(m_symbols[i]-&gt;get_color()==color)</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>match=i;</t>
-  </si>
-  <si>
-    <t>return match;</t>
-  </si>
-  <si>
-    <t>int blue_begin=first_of_color_after(BLUE,0);</t>
-  </si>
-  <si>
-    <t>int blue_end=first_of_color_after(RED,0)-1;</t>
-  </si>
-  <si>
-    <t>merge_ranges(1, blue_begin-1, blue_end);</t>
-  </si>
-  <si>
-    <t>Qvector&lt;*Esymbol&gt; range1;</t>
-  </si>
-  <si>
-    <t>merge_ranges(int begin, int range2_begin, int end)</t>
-  </si>
-  <si>
-    <t>Qvector&lt;*Esymbol&gt; range2;</t>
-  </si>
-  <si>
-    <t>// Fill range2 with m_symbols[range2_begin - end]</t>
-  </si>
-  <si>
-    <t>// Fill range1 with m_symbols[0 - (range2_begin-1)]</t>
-  </si>
-  <si>
-    <t>for(int i=end; i&gt;=begin; i--)</t>
-  </si>
-  <si>
-    <t>int randnum=prevent_pattern(rand(), count);</t>
-  </si>
-  <si>
-    <t>prevent_pattern(int num, int count)</t>
+    <t>set_colors()</t>
+  </si>
+  <si>
+    <t>int color=3;</t>
+  </si>
+  <si>
+    <t>int interval=(15/3)=5;</t>
+  </si>
+  <si>
+    <t>for(int i=14; i&gt;=0; i++)</t>
+  </si>
+  <si>
+    <t>i=14</t>
+  </si>
+  <si>
+    <t>m_symbols[14].set_color(3);</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>if(i%interval == 0)</t>
+  </si>
+  <si>
+    <t>i=13</t>
+  </si>
+  <si>
+    <t>m_symbols[13].set_color(3);</t>
+  </si>
+  <si>
+    <t>i%interval=4</t>
+  </si>
+  <si>
+    <t>i%interval=3</t>
+  </si>
+  <si>
+    <t>i=12</t>
   </si>
 </sst>
 </file>
@@ -205,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -216,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7126682-4890-43A8-8307-C642B998E432}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -690,170 +672,100 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C42" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>41</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>